--- a/Results/Model Test/Model test attractiveness 1.xlsx
+++ b/Results/Model Test/Model test attractiveness 1.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cindyzhang/Desktop/llm human appearances code /Results/Model Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6130671F-3A17-0446-8F4D-DFE78CD1AC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B410C54-9A3F-684A-BE77-C813C12F86E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="2700" windowWidth="28800" windowHeight="16580" xr2:uid="{C38CC57F-CFFA-084A-B724-DD6B7344B996}"/>
+    <workbookView xWindow="2440" yWindow="2700" windowWidth="28800" windowHeight="16580" activeTab="2" xr2:uid="{C38CC57F-CFFA-084A-B724-DD6B7344B996}"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="6" r:id="rId1"/>
     <sheet name="gpt4o " sheetId="1" r:id="rId2"/>
-    <sheet name="gpt4.1" sheetId="2" r:id="rId3"/>
-    <sheet name="deepseek" sheetId="3" r:id="rId4"/>
-    <sheet name="claude" sheetId="5" r:id="rId5"/>
+    <sheet name="deepseek" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="27">
   <si>
     <t>I'm sorry, I can't assist with evaluating the images.</t>
   </si>
@@ -481,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC256032-938E-8643-A7BE-427E212FC6AC}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -769,274 +767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F13BA6-607D-324D-83BF-87F2DEBC69C8}">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5095EC-D78E-0040-A1A6-BCE831E29611}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1292,16 +1027,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC255432-2005-344E-BF0C-886F974BE0F7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>